--- a/Doc/数据库设计文档.用户帐号.xlsx
+++ b/Doc/数据库设计文档.用户帐号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="库设计-备注" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
   <si>
     <t>测试库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>WL_SysConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NickPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像/昵称头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealFacePic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真人头像，照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDCardPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1496,7 +1520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -1507,7 +1531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -1532,7 +1556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>70</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>68</v>
       </c>
@@ -1588,7 +1612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>66</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -1616,37 +1640,37 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>512</v>
+      </c>
+      <c r="I27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>54</v>
-      </c>
-      <c r="D27">
-        <v>128</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="D28">
         <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -1655,101 +1679,69 @@
         <v>512</v>
       </c>
       <c r="I29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>512</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>512</v>
+      </c>
+      <c r="I32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>512</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="4">
-        <v>128</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>54</v>
@@ -1762,37 +1754,35 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="4">
-        <v>128</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1800,34 +1790,32 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="4">
-        <v>128</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>54</v>
@@ -1840,31 +1828,110 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D40" s="4">
+        <v>128</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4">
+        <v>128</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4">
+        <v>128</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1872,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
